--- a/excel/FactorialAnalysis_meanbuffer.xlsx
+++ b/excel/FactorialAnalysis_meanbuffer.xlsx
@@ -1083,7 +1083,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart170.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart176.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1687,11 +1687,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="38654075"/>
-        <c:axId val="32531301"/>
+        <c:axId val="26663516"/>
+        <c:axId val="90439323"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38654075"/>
+        <c:axId val="26663516"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,12 +1733,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32531301"/>
+        <c:crossAx val="90439323"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32531301"/>
+        <c:axId val="90439323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1780,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38654075"/>
+        <c:crossAx val="26663516"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1808,7 +1808,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart171.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart177.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2396,11 +2396,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="38081290"/>
-        <c:axId val="82830458"/>
+        <c:axId val="38241358"/>
+        <c:axId val="93311403"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38081290"/>
+        <c:axId val="38241358"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,12 +2442,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82830458"/>
+        <c:crossAx val="93311403"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82830458"/>
+        <c:axId val="93311403"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +2489,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38081290"/>
+        <c:crossAx val="38241358"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2517,7 +2517,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart172.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart178.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3109,11 +3109,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="5273075"/>
-        <c:axId val="54504237"/>
+        <c:axId val="34879885"/>
+        <c:axId val="87249719"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5273075"/>
+        <c:axId val="34879885"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3141,12 +3141,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54504237"/>
+        <c:crossAx val="87249719"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54504237"/>
+        <c:axId val="87249719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3183,7 +3183,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5273075"/>
+        <c:crossAx val="34879885"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3333,8 +3333,8 @@
   </sheetPr>
   <dimension ref="B1:BE1420"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I48" activeCellId="0" sqref="I48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH5" activeCellId="0" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/excel/FactorialAnalysis_meanbuffer.xlsx
+++ b/excel/FactorialAnalysis_meanbuffer.xlsx
@@ -722,7 +722,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -935,10 +935,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1083,7 +1079,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart176.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1687,11 +1683,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26663516"/>
-        <c:axId val="90439323"/>
+        <c:axId val="7631040"/>
+        <c:axId val="54430826"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26663516"/>
+        <c:axId val="7631040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,12 +1729,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90439323"/>
+        <c:crossAx val="54430826"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90439323"/>
+        <c:axId val="54430826"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1776,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26663516"/>
+        <c:crossAx val="7631040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1808,7 +1804,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart177.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2396,11 +2392,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="38241358"/>
-        <c:axId val="93311403"/>
+        <c:axId val="91889594"/>
+        <c:axId val="66393709"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38241358"/>
+        <c:axId val="91889594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,12 +2438,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93311403"/>
+        <c:crossAx val="66393709"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93311403"/>
+        <c:axId val="66393709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +2485,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38241358"/>
+        <c:crossAx val="91889594"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2517,7 +2513,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart178.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2587,6 +2583,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3109,17 +3106,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34879885"/>
-        <c:axId val="87249719"/>
+        <c:axId val="38414027"/>
+        <c:axId val="16722974"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34879885"/>
+        <c:axId val="38414027"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3141,12 +3138,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87249719"/>
+        <c:crossAx val="16722974"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87249719"/>
+        <c:axId val="16722974"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3161,7 +3158,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3183,7 +3180,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34879885"/>
+        <c:crossAx val="38414027"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3224,7 +3221,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -3242,9 +3239,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>211680</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3252,8 +3249,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13492440" y="9662400"/>
-        <a:ext cx="7560720" cy="3304080"/>
+        <a:off x="13495320" y="9662400"/>
+        <a:ext cx="7567200" cy="3303720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3272,9 +3269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>775440</xdr:colOff>
+      <xdr:colOff>775080</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3282,8 +3279,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12336840" y="25469280"/>
-        <a:ext cx="7730280" cy="3191400"/>
+        <a:off x="12339360" y="25469280"/>
+        <a:ext cx="7735680" cy="3191040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3302,9 +3299,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>197640</xdr:colOff>
+      <xdr:colOff>197280</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3312,8 +3309,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12597480" y="8902800"/>
-        <a:ext cx="7666560" cy="4417200"/>
+        <a:off x="12600000" y="8902800"/>
+        <a:ext cx="7672680" cy="4416840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3333,11 +3330,11 @@
   </sheetPr>
   <dimension ref="B1:BE1420"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH5" activeCellId="0" sqref="AH5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ19" activeCellId="0" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.71"/>
@@ -8137,78 +8134,78 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="54" t="n">
+      <c r="E49" s="53" t="n">
         <f aca="false">E46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.766508071915118</v>
       </c>
-      <c r="F49" s="55" t="n">
+      <c r="F49" s="54" t="n">
         <f aca="false">F46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0699916060203797</v>
       </c>
-      <c r="G49" s="55" t="n">
+      <c r="G49" s="54" t="n">
         <f aca="false">G46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0877871814369117</v>
       </c>
-      <c r="H49" s="55" t="n">
+      <c r="H49" s="54" t="n">
         <f aca="false">H46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.392479843250658</v>
       </c>
-      <c r="I49" s="55" t="n">
+      <c r="I49" s="54" t="n">
         <f aca="false">I46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.492994539146721</v>
       </c>
-      <c r="J49" s="55" t="n">
+      <c r="J49" s="54" t="n">
         <f aca="false">J46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0764978145523219</v>
       </c>
-      <c r="K49" s="55" t="n">
+      <c r="K49" s="54" t="n">
         <f aca="false">K46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.00630035780885934</v>
       </c>
-      <c r="L49" s="55" t="n">
+      <c r="L49" s="54" t="n">
         <f aca="false">L46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0766187600115113</v>
       </c>
-      <c r="M49" s="55" t="n">
+      <c r="M49" s="54" t="n">
         <f aca="false">M46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.00124524019402813</v>
       </c>
-      <c r="N49" s="55" t="n">
+      <c r="N49" s="54" t="n">
         <f aca="false">N46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0694297534211012</v>
       </c>
-      <c r="O49" s="55" t="n">
+      <c r="O49" s="54" t="n">
         <f aca="false">O46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0535167509818384</v>
       </c>
-      <c r="P49" s="55" t="n">
+      <c r="P49" s="54" t="n">
         <f aca="false">P46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.000360425203064241</v>
       </c>
-      <c r="Q49" s="55" t="n">
+      <c r="Q49" s="54" t="n">
         <f aca="false">Q46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0595314524396454</v>
       </c>
-      <c r="R49" s="55" t="n">
+      <c r="R49" s="54" t="n">
         <f aca="false">R46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.00666082072882379</v>
       </c>
-      <c r="S49" s="55" t="n">
+      <c r="S49" s="54" t="n">
         <f aca="false">S46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.011581684570166</v>
       </c>
-      <c r="T49" s="56" t="n">
+      <c r="T49" s="55" t="n">
         <f aca="false">T46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0105586703092256</v>
       </c>
-      <c r="W49" s="57" t="s">
+      <c r="W49" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="57"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
       <c r="AG49" s="0" t="s">
         <v>40</v>
       </c>
@@ -8226,64 +8223,64 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="53"/>
-      <c r="E50" s="58" t="n">
+      <c r="D50" s="37"/>
+      <c r="E50" s="57" t="n">
         <f aca="false">E46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.758210301641559</v>
       </c>
-      <c r="F50" s="59" t="n">
+      <c r="F50" s="58" t="n">
         <f aca="false">F46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.078289376293939</v>
       </c>
-      <c r="G50" s="59" t="n">
+      <c r="G50" s="58" t="n">
         <f aca="false">G46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0794894111633525</v>
       </c>
-      <c r="H50" s="59" t="n">
+      <c r="H50" s="58" t="n">
         <f aca="false">H46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.384182072977099</v>
       </c>
-      <c r="I50" s="59" t="n">
+      <c r="I50" s="58" t="n">
         <f aca="false">I46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.484696768873162</v>
       </c>
-      <c r="J50" s="59" t="n">
+      <c r="J50" s="58" t="n">
         <f aca="false">J46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0682000442787627</v>
       </c>
-      <c r="K50" s="59" t="n">
+      <c r="K50" s="58" t="n">
         <f aca="false">K46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.00199741246469991</v>
       </c>
-      <c r="L50" s="59" t="n">
+      <c r="L50" s="58" t="n">
         <f aca="false">L46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.068320989737952</v>
       </c>
-      <c r="M50" s="59" t="n">
+      <c r="M50" s="58" t="n">
         <f aca="false">M46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.00705253007953112</v>
       </c>
-      <c r="N50" s="59" t="n">
+      <c r="N50" s="58" t="n">
         <f aca="false">N46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0777275236946604</v>
       </c>
-      <c r="O50" s="59" t="n">
+      <c r="O50" s="58" t="n">
         <f aca="false">O46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0618145212553977</v>
       </c>
-      <c r="P50" s="59" t="n">
+      <c r="P50" s="58" t="n">
         <f aca="false">P46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.00865819547662349</v>
       </c>
-      <c r="Q50" s="59" t="n">
+      <c r="Q50" s="58" t="n">
         <f aca="false">Q46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0678292227132047</v>
       </c>
-      <c r="R50" s="59" t="n">
+      <c r="R50" s="58" t="n">
         <f aca="false">R46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.014958591002383</v>
       </c>
-      <c r="S50" s="59" t="n">
+      <c r="S50" s="58" t="n">
         <f aca="false">S46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0032839142966067</v>
       </c>
@@ -8353,17 +8350,17 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C53" s="60"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="62" t="s">
+      <c r="C53" s="59"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
       <c r="AJ53" s="0" t="s">
         <v>44</v>
       </c>
@@ -8375,15 +8372,15 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
       <c r="AF54" s="0" t="s">
         <v>66</v>
       </c>
@@ -8404,12 +8401,12 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
       <c r="AG55" s="0" t="s">
         <v>40</v>
       </c>
@@ -8444,19 +8441,19 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="63" t="s">
+      <c r="E57" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="F57" s="64" t="s">
+      <c r="F57" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="G57" s="64" t="s">
+      <c r="G57" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="H57" s="64" t="s">
+      <c r="H57" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="I57" s="65" t="s">
+      <c r="I57" s="64" t="s">
         <v>71</v>
       </c>
       <c r="AG57" s="0" t="s">
@@ -8467,21 +8464,21 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="66" t="n">
+      <c r="E58" s="65" t="n">
         <v>1</v>
       </c>
-      <c r="F58" s="67" t="n">
+      <c r="F58" s="66" t="n">
         <f aca="false">(E58-0.5)/$E$137</f>
         <v>0.00625</v>
       </c>
-      <c r="G58" s="67" t="n">
+      <c r="G58" s="66" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F58)</f>
         <v>-2.49770547441237</v>
       </c>
       <c r="H58" s="16" t="n">
         <v>-0.0854042574458502</v>
       </c>
-      <c r="I58" s="68" t="n">
+      <c r="I58" s="67" t="n">
         <f aca="false">AA5</f>
         <v>-0.00960068698943515</v>
       </c>
@@ -9206,18 +9203,18 @@
         <f aca="false">AB9</f>
         <v>-0.00258882962337629</v>
       </c>
-      <c r="M78" s="69" t="s">
+      <c r="M78" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="N78" s="69"/>
-      <c r="O78" s="69"/>
-      <c r="P78" s="69"/>
-      <c r="Q78" s="69"/>
-      <c r="R78" s="69"/>
-      <c r="S78" s="69"/>
-      <c r="T78" s="69"/>
-      <c r="U78" s="69"/>
-      <c r="V78" s="69"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="68"/>
+      <c r="Q78" s="68"/>
+      <c r="R78" s="68"/>
+      <c r="S78" s="68"/>
+      <c r="T78" s="68"/>
+      <c r="U78" s="68"/>
+      <c r="V78" s="68"/>
       <c r="AF78" s="0" t="s">
         <v>76</v>
       </c>
@@ -9261,18 +9258,18 @@
         <f aca="false">AB10</f>
         <v>-0.00318171886690322</v>
       </c>
-      <c r="M79" s="70" t="s">
+      <c r="M79" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="N79" s="70"/>
-      <c r="O79" s="70"/>
-      <c r="P79" s="70"/>
-      <c r="Q79" s="70"/>
-      <c r="R79" s="70"/>
-      <c r="S79" s="70"/>
-      <c r="T79" s="70"/>
-      <c r="U79" s="70"/>
-      <c r="V79" s="70"/>
+      <c r="N79" s="69"/>
+      <c r="O79" s="69"/>
+      <c r="P79" s="69"/>
+      <c r="Q79" s="69"/>
+      <c r="R79" s="69"/>
+      <c r="S79" s="69"/>
+      <c r="T79" s="69"/>
+      <c r="U79" s="69"/>
+      <c r="V79" s="69"/>
       <c r="AG79" s="0" t="s">
         <v>40</v>
       </c>
@@ -9309,16 +9306,16 @@
         <f aca="false">AB11</f>
         <v>-0.00262902739903292</v>
       </c>
-      <c r="M80" s="70"/>
-      <c r="N80" s="70"/>
-      <c r="O80" s="70"/>
-      <c r="P80" s="70"/>
-      <c r="Q80" s="70"/>
-      <c r="R80" s="70"/>
-      <c r="S80" s="70"/>
-      <c r="T80" s="70"/>
-      <c r="U80" s="70"/>
-      <c r="V80" s="70"/>
+      <c r="M80" s="69"/>
+      <c r="N80" s="69"/>
+      <c r="O80" s="69"/>
+      <c r="P80" s="69"/>
+      <c r="Q80" s="69"/>
+      <c r="R80" s="69"/>
+      <c r="S80" s="69"/>
+      <c r="T80" s="69"/>
+      <c r="U80" s="69"/>
+      <c r="V80" s="69"/>
       <c r="AG80" s="0" t="s">
         <v>41</v>
       </c>
@@ -9355,18 +9352,18 @@
         <f aca="false">AB12</f>
         <v>-0.0124186995911095</v>
       </c>
-      <c r="M81" s="71" t="s">
+      <c r="M81" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="N81" s="71"/>
-      <c r="O81" s="71"/>
-      <c r="P81" s="71"/>
-      <c r="Q81" s="71"/>
-      <c r="R81" s="71"/>
-      <c r="S81" s="71"/>
-      <c r="T81" s="71"/>
-      <c r="U81" s="71"/>
-      <c r="V81" s="71"/>
+      <c r="N81" s="70"/>
+      <c r="O81" s="70"/>
+      <c r="P81" s="70"/>
+      <c r="Q81" s="70"/>
+      <c r="R81" s="70"/>
+      <c r="S81" s="70"/>
+      <c r="T81" s="70"/>
+      <c r="U81" s="70"/>
+      <c r="V81" s="70"/>
       <c r="AG81" s="0" t="s">
         <v>42</v>
       </c>
@@ -9403,16 +9400,16 @@
         <f aca="false">AB13</f>
         <v>0.0577948138837593</v>
       </c>
-      <c r="M82" s="71"/>
-      <c r="N82" s="71"/>
-      <c r="O82" s="71"/>
-      <c r="P82" s="71"/>
-      <c r="Q82" s="71"/>
-      <c r="R82" s="71"/>
-      <c r="S82" s="71"/>
-      <c r="T82" s="71"/>
-      <c r="U82" s="71"/>
-      <c r="V82" s="71"/>
+      <c r="M82" s="70"/>
+      <c r="N82" s="70"/>
+      <c r="O82" s="70"/>
+      <c r="P82" s="70"/>
+      <c r="Q82" s="70"/>
+      <c r="R82" s="70"/>
+      <c r="S82" s="70"/>
+      <c r="T82" s="70"/>
+      <c r="U82" s="70"/>
+      <c r="V82" s="70"/>
       <c r="AG82" s="0" t="s">
         <v>43</v>
       </c>
@@ -11093,7 +11090,7 @@
         <f aca="false">_xlfn.NORM.S.INV(F134)</f>
         <v>1.7087352578229</v>
       </c>
-      <c r="H134" s="67" t="n">
+      <c r="H134" s="66" t="n">
         <v>0.0342065557765372</v>
       </c>
       <c r="I134" s="20" t="n">
@@ -11229,15 +11226,15 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="62" t="s">
+      <c r="E141" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="F141" s="62"/>
-      <c r="G141" s="62"/>
-      <c r="H141" s="62"/>
-      <c r="I141" s="62"/>
-      <c r="J141" s="62"/>
-      <c r="K141" s="62"/>
+      <c r="F141" s="61"/>
+      <c r="G141" s="61"/>
+      <c r="H141" s="61"/>
+      <c r="I141" s="61"/>
+      <c r="J141" s="61"/>
+      <c r="K141" s="61"/>
       <c r="AJ141" s="0" t="s">
         <v>52</v>
       </c>
@@ -11253,13 +11250,13 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="62"/>
-      <c r="F142" s="62"/>
-      <c r="G142" s="62"/>
-      <c r="H142" s="62"/>
-      <c r="I142" s="62"/>
-      <c r="J142" s="62"/>
-      <c r="K142" s="62"/>
+      <c r="E142" s="61"/>
+      <c r="F142" s="61"/>
+      <c r="G142" s="61"/>
+      <c r="H142" s="61"/>
+      <c r="I142" s="61"/>
+      <c r="J142" s="61"/>
+      <c r="K142" s="61"/>
       <c r="AJ142" s="0" t="s">
         <v>52</v>
       </c>
@@ -11293,13 +11290,13 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="63" t="s">
+      <c r="E145" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="F145" s="64" t="s">
+      <c r="F145" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="G145" s="65" t="s">
+      <c r="G145" s="64" t="s">
         <v>84</v>
       </c>
       <c r="AJ145" s="0" t="s">
@@ -11313,14 +11310,14 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="66" t="n">
+      <c r="E146" s="65" t="n">
         <v>1</v>
       </c>
-      <c r="F146" s="67" t="n">
+      <c r="F146" s="66" t="n">
         <f aca="false">U$5</f>
         <v>0.0239158466349844</v>
       </c>
-      <c r="G146" s="68" t="n">
+      <c r="G146" s="67" t="n">
         <f aca="false">AA$5</f>
         <v>-0.00960068698943515</v>
       </c>
